--- a/medicine/中药数据/TCMSP/浙贝母/浙贝母_target.xlsx
+++ b/medicine/中药数据/TCMSP/浙贝母/浙贝母_target.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MarinaJacks\project\reptilian\medicine\中药数据\TCMSP\浙贝母\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="浙贝母靶点" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -664,12 +669,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -677,7 +682,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -688,16 +693,62 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -720,6 +771,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -728,24 +854,76 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -787,7 +965,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -819,9 +997,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -853,6 +1032,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1028,2363 +1208,2388 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F112"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:H114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="85.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="87.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1">
+    <row r="1" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="1">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
+      <c r="E1" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="1">
+      <c r="F1" s="1">
         <v>2</v>
       </c>
-      <c r="E1" s="1">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1">
+      <c r="G1" s="1">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
+    <row r="2" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+    </row>
+    <row r="3" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+    </row>
+    <row r="4" spans="3:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="C4" s="10">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G4" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H4" s="12" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="7">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G5" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H5" s="15" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="G6" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H6" s="6" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="G7" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H7" s="9" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="4">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="G8" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H8" s="6" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="7">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="G9" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H9" s="9" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="4">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G10" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H10" s="6" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="7">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="G11" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H11" s="9" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="4">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="G12" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H12" s="6" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="7">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="G13" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H13" s="9" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="4">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="G14" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H14" s="6" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="7">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="G15" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H15" s="9" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1">
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="4">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="G16" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H16" s="6" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C17" s="7">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="G17" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H17" s="9" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="4">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="G18" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H18" s="6" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C19" s="7">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D17" t="s">
+      <c r="F19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="G19" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H19" s="9" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C20" s="4">
+        <v>16</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="G20" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H20" s="6" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C21" s="7">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="D21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="G21" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H21" s="9" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C22" s="4">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="D22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="G22" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F20" t="s">
+      <c r="H22" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C23" s="7">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="D23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="G23" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="F21" t="s">
+      <c r="H23" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C24" s="4">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="D24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="G24" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F22" t="s">
+      <c r="H24" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="1">
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C25" s="7">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="D25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="G25" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="F23" t="s">
+      <c r="H25" s="9" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="1">
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C26" s="4">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="G26" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F24" t="s">
+      <c r="H26" s="6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="1">
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C27" s="7">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="D27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="G27" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F25" t="s">
+      <c r="H27" s="9" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="1">
+    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C28" s="4">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="D28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="G28" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F26" t="s">
+      <c r="H28" s="6" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="1">
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C29" s="7">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="D29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="G29" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="F27" t="s">
+      <c r="H29" s="9" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="1">
+    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C30" s="4">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="D30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="G30" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F28" t="s">
+      <c r="H30" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="1">
+    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C31" s="7">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="D31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="G31" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F29" t="s">
+      <c r="H31" s="9" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="1">
+    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C32" s="4">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="G32" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F30" t="s">
+      <c r="H32" s="6" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="1">
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C33" s="7">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="D33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="G33" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="F31" t="s">
+      <c r="H33" s="9" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="1">
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C34" s="4">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="D34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="G34" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="F32" t="s">
+      <c r="H34" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="1">
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C35" s="7">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="D35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="G35" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="F33" t="s">
+      <c r="H35" s="9" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="1">
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C36" s="4">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="D36" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="G36" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="F34" t="s">
+      <c r="H36" s="6" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="1">
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C37" s="7">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="D37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="G37" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="F35" t="s">
+      <c r="H37" s="9" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="1">
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C38" s="4">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="D38" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="G38" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F36" t="s">
+      <c r="H38" s="6" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="1">
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C39" s="7">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="D39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="G39" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="F37" t="s">
+      <c r="H39" s="9" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1">
+    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C40" s="4">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="D40" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="G40" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F38" t="s">
+      <c r="H40" s="6" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1">
+    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C41" s="7">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="D41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="G41" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="F39" t="s">
+      <c r="H41" s="9" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="1">
+    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C42" s="4">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="D42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="G42" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="F40" t="s">
+      <c r="H42" s="6" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="1">
+    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C43" s="7">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="D43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="G43" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="F41" t="s">
+      <c r="H43" s="9" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="1">
+    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C44" s="4">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="D44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="G44" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="F42" t="s">
+      <c r="H44" s="6" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="1">
+    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C45" s="7">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="D45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="G45" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="F43" t="s">
+      <c r="H45" s="9" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="1">
+    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C46" s="4">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="D46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="G46" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F44" t="s">
+      <c r="H46" s="6" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="1">
+    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C47" s="7">
         <v>43</v>
       </c>
-      <c r="B45" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="D47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="G47" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="F45" t="s">
+      <c r="H47" s="9" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="1">
+    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C48" s="4">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="D48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="G48" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="F46" t="s">
+      <c r="H48" s="6" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="1">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C49" s="7">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="D49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="G49" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="F47" t="s">
+      <c r="H49" s="9" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="1">
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C50" s="4">
         <v>46</v>
       </c>
-      <c r="B48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="D50" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="G50" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F48" t="s">
+      <c r="H50" s="6" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="1">
+    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C51" s="7">
         <v>47</v>
       </c>
-      <c r="B49" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" t="s">
-        <v>16</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="D51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="G51" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="F49" t="s">
+      <c r="H51" s="9" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="1">
+    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C52" s="4">
         <v>48</v>
       </c>
-      <c r="B50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="D52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="G52" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="F50" t="s">
+      <c r="H52" s="6" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="1">
+    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C53" s="7">
         <v>49</v>
       </c>
-      <c r="B51" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" t="s">
-        <v>16</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="D53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="G53" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="F51" t="s">
+      <c r="H53" s="9" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="1">
+    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C54" s="4">
         <v>50</v>
       </c>
-      <c r="B52" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" t="s">
-        <v>16</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="D54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="G54" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F52" t="s">
+      <c r="H54" s="6" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="1">
+    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C55" s="7">
         <v>51</v>
       </c>
-      <c r="B53" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" t="s">
-        <v>16</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="D55" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="G55" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="F53" t="s">
+      <c r="H55" s="9" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="1">
+    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C56" s="4">
         <v>52</v>
       </c>
-      <c r="B54" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" t="s">
-        <v>16</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="D56" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="G56" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F54" t="s">
+      <c r="H56" s="6" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="1">
+    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C57" s="7">
         <v>53</v>
       </c>
-      <c r="B55" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="D57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="G57" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="F55" t="s">
+      <c r="H57" s="9" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="1">
+    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C58" s="4">
         <v>54</v>
       </c>
-      <c r="B56" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" t="s">
-        <v>16</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="D58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="G58" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="F56" t="s">
+      <c r="H58" s="6" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="1">
+    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C59" s="7">
         <v>55</v>
       </c>
-      <c r="B57" t="s">
+      <c r="D59" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C57" t="s">
+      <c r="E59" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D57" t="s">
+      <c r="F59" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="G59" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="F57" t="s">
+      <c r="H59" s="9" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="1">
+    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C60" s="4">
         <v>56</v>
       </c>
-      <c r="B58" t="s">
+      <c r="D60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C58" t="s">
+      <c r="E60" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D58" t="s">
+      <c r="F60" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="G60" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F58" t="s">
+      <c r="H60" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="1">
+    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C61" s="7">
         <v>57</v>
       </c>
-      <c r="B59" t="s">
+      <c r="D61" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C59" t="s">
+      <c r="E61" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D59" t="s">
+      <c r="F61" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="G61" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="F59" t="s">
+      <c r="H61" s="9" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="1">
+    <row r="62" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C62" s="4">
         <v>58</v>
       </c>
-      <c r="B60" t="s">
+      <c r="D62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C60" t="s">
+      <c r="E62" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D60" t="s">
+      <c r="F62" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="G62" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F60" t="s">
+      <c r="H62" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="1">
+    <row r="63" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C63" s="7">
         <v>59</v>
       </c>
-      <c r="B61" t="s">
+      <c r="D63" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C61" t="s">
+      <c r="E63" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D61" t="s">
+      <c r="F63" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="G63" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="F61" t="s">
+      <c r="H63" s="9" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="1">
+    <row r="64" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C64" s="4">
         <v>60</v>
       </c>
-      <c r="B62" t="s">
+      <c r="D64" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C62" t="s">
+      <c r="E64" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D62" t="s">
+      <c r="F64" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="G64" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F62" t="s">
+      <c r="H64" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="1">
+    <row r="65" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C65" s="7">
         <v>61</v>
       </c>
-      <c r="B63" t="s">
+      <c r="D65" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C63" t="s">
+      <c r="E65" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D63" t="s">
+      <c r="F65" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="G65" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="F63" t="s">
+      <c r="H65" s="9" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="1">
+    <row r="66" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C66" s="4">
         <v>62</v>
       </c>
-      <c r="B64" t="s">
+      <c r="D66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C64" t="s">
+      <c r="E66" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D64" t="s">
+      <c r="F66" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="G66" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F64" t="s">
+      <c r="H66" s="6" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="1">
+    <row r="67" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C67" s="7">
         <v>63</v>
       </c>
-      <c r="B65" t="s">
+      <c r="D67" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C65" t="s">
+      <c r="E67" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D65" t="s">
+      <c r="F67" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="G67" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="F65" t="s">
+      <c r="H67" s="9" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="1">
+    <row r="68" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C68" s="4">
         <v>64</v>
       </c>
-      <c r="B66" t="s">
+      <c r="D68" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C66" t="s">
+      <c r="E68" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D66" t="s">
+      <c r="F68" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="G68" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F66" t="s">
+      <c r="H68" s="6" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="1">
+    <row r="69" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C69" s="7">
         <v>65</v>
       </c>
-      <c r="B67" t="s">
+      <c r="D69" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C67" t="s">
+      <c r="E69" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D67" t="s">
+      <c r="F69" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="G69" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="F67" t="s">
+      <c r="H69" s="9" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="1">
+    <row r="70" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C70" s="4">
         <v>66</v>
       </c>
-      <c r="B68" t="s">
+      <c r="D70" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C68" t="s">
+      <c r="E70" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D68" t="s">
+      <c r="F70" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="G70" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F68" t="s">
+      <c r="H70" s="6" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="1">
+    <row r="71" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C71" s="7">
         <v>67</v>
       </c>
-      <c r="B69" t="s">
+      <c r="D71" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C69" t="s">
+      <c r="E71" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D69" t="s">
+      <c r="F71" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="G71" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F69" t="s">
+      <c r="H71" s="9" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="1">
+    <row r="72" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C72" s="4">
         <v>68</v>
       </c>
-      <c r="B70" t="s">
+      <c r="D72" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C70" t="s">
+      <c r="E72" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D70" t="s">
+      <c r="F72" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="G72" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F70" t="s">
+      <c r="H72" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="1">
+    <row r="73" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C73" s="7">
         <v>69</v>
       </c>
-      <c r="B71" t="s">
+      <c r="D73" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C71" t="s">
+      <c r="E73" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D71" t="s">
+      <c r="F73" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="G73" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F71" t="s">
+      <c r="H73" s="9" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="1">
+    <row r="74" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C74" s="4">
         <v>70</v>
       </c>
-      <c r="B72" t="s">
+      <c r="D74" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C72" t="s">
+      <c r="E74" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D72" t="s">
+      <c r="F74" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="G74" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F72" t="s">
+      <c r="H74" s="6" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="1">
+    <row r="75" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C75" s="7">
         <v>71</v>
       </c>
-      <c r="B73" t="s">
+      <c r="D75" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C73" t="s">
+      <c r="E75" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D73" t="s">
+      <c r="F75" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="G75" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="F73" t="s">
+      <c r="H75" s="9" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="1">
+    <row r="76" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C76" s="4">
         <v>72</v>
       </c>
-      <c r="B74" t="s">
+      <c r="D76" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C74" t="s">
+      <c r="E76" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D74" t="s">
+      <c r="F76" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="G76" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F74" t="s">
+      <c r="H76" s="6" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="1">
+    <row r="77" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C77" s="7">
         <v>73</v>
       </c>
-      <c r="B75" t="s">
+      <c r="D77" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C75" t="s">
+      <c r="E77" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D75" t="s">
+      <c r="F77" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="G77" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="F75" t="s">
+      <c r="H77" s="9" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="1">
+    <row r="78" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C78" s="4">
         <v>74</v>
       </c>
-      <c r="B76" t="s">
+      <c r="D78" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C76" t="s">
+      <c r="E78" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D76" t="s">
+      <c r="F78" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="G78" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F76" t="s">
+      <c r="H78" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="1">
+    <row r="79" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C79" s="7">
         <v>75</v>
       </c>
-      <c r="B77" t="s">
+      <c r="D79" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C77" t="s">
+      <c r="E79" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D77" t="s">
+      <c r="F79" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="G79" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="F77" t="s">
+      <c r="H79" s="9" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="1">
+    <row r="80" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C80" s="4">
         <v>76</v>
       </c>
-      <c r="B78" t="s">
+      <c r="D80" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C78" t="s">
+      <c r="E80" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D78" t="s">
+      <c r="F80" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="G80" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F78" t="s">
+      <c r="H80" s="6" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="1">
+    <row r="81" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C81" s="7">
         <v>77</v>
       </c>
-      <c r="B79" t="s">
+      <c r="D81" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C79" t="s">
+      <c r="E81" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D79" t="s">
+      <c r="F81" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="G81" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="F79" t="s">
+      <c r="H81" s="9" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="1">
+    <row r="82" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C82" s="4">
         <v>78</v>
       </c>
-      <c r="B80" t="s">
+      <c r="D82" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C80" t="s">
+      <c r="E82" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D80" t="s">
+      <c r="F82" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="G82" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F80" t="s">
+      <c r="H82" s="6" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="1">
+    <row r="83" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C83" s="7">
         <v>79</v>
       </c>
-      <c r="B81" t="s">
+      <c r="D83" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C81" t="s">
+      <c r="E83" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D81" t="s">
+      <c r="F83" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="G83" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="F81" t="s">
+      <c r="H83" s="9" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="1">
+    <row r="84" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C84" s="4">
         <v>80</v>
       </c>
-      <c r="B82" t="s">
+      <c r="D84" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C82" t="s">
+      <c r="E84" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D82" t="s">
+      <c r="F84" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="G84" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F82" t="s">
+      <c r="H84" s="6" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="1">
+    <row r="85" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C85" s="7">
         <v>81</v>
       </c>
-      <c r="B83" t="s">
+      <c r="D85" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C83" t="s">
+      <c r="E85" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D83" t="s">
+      <c r="F85" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="G85" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F83" t="s">
+      <c r="H85" s="9" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="1">
+    <row r="86" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C86" s="4">
         <v>82</v>
       </c>
-      <c r="B84" t="s">
+      <c r="D86" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C84" t="s">
+      <c r="E86" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D84" t="s">
+      <c r="F86" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="G86" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F84" t="s">
+      <c r="H86" s="6" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="1">
+    <row r="87" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C87" s="7">
         <v>83</v>
       </c>
-      <c r="B85" t="s">
+      <c r="D87" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C85" t="s">
+      <c r="E87" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D85" t="s">
+      <c r="F87" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="G87" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="F85" t="s">
+      <c r="H87" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="1">
+    <row r="88" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C88" s="4">
         <v>84</v>
       </c>
-      <c r="B86" t="s">
+      <c r="D88" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C86" t="s">
+      <c r="E88" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D86" t="s">
+      <c r="F88" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="G88" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="F86" t="s">
+      <c r="H88" s="6" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="1">
+    <row r="89" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C89" s="7">
         <v>85</v>
       </c>
-      <c r="B87" t="s">
+      <c r="D89" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C87" t="s">
+      <c r="E89" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D87" t="s">
+      <c r="F89" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="G89" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F87" t="s">
+      <c r="H89" s="9" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="1">
+    <row r="90" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C90" s="4">
         <v>86</v>
       </c>
-      <c r="B88" t="s">
+      <c r="D90" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C88" t="s">
+      <c r="E90" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D88" t="s">
+      <c r="F90" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="G90" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F88" t="s">
+      <c r="H90" s="6" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="1">
+    <row r="91" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C91" s="7">
         <v>87</v>
       </c>
-      <c r="B89" t="s">
+      <c r="D91" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C89" t="s">
+      <c r="E91" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D89" t="s">
+      <c r="F91" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="G91" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F89" t="s">
+      <c r="H91" s="9" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="1">
+    <row r="92" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C92" s="4">
         <v>88</v>
       </c>
-      <c r="B90" t="s">
+      <c r="D92" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C90" t="s">
+      <c r="E92" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D90" t="s">
+      <c r="F92" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="G92" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F90" t="s">
+      <c r="H92" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="1">
+    <row r="93" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C93" s="7">
         <v>89</v>
       </c>
-      <c r="B91" t="s">
+      <c r="D93" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C91" t="s">
+      <c r="E93" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D91" t="s">
+      <c r="F93" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="G93" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="F91" t="s">
+      <c r="H93" s="9" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="1">
+    <row r="94" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C94" s="4">
         <v>90</v>
       </c>
-      <c r="B92" t="s">
+      <c r="D94" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C92" t="s">
+      <c r="E94" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D92" t="s">
+      <c r="F94" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="G94" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F92" t="s">
+      <c r="H94" s="6" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="1">
+    <row r="95" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C95" s="7">
         <v>91</v>
       </c>
-      <c r="B93" t="s">
+      <c r="D95" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C93" t="s">
+      <c r="E95" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D93" t="s">
+      <c r="F95" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="G95" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="F93" t="s">
+      <c r="H95" s="9" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="1">
+    <row r="96" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C96" s="4">
         <v>92</v>
       </c>
-      <c r="B94" t="s">
+      <c r="D96" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C94" t="s">
+      <c r="E96" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D94" t="s">
+      <c r="F96" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="G96" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="F94" t="s">
+      <c r="H96" s="6" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="1">
+    <row r="97" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C97" s="7">
         <v>93</v>
       </c>
-      <c r="B95" t="s">
+      <c r="D97" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C95" t="s">
+      <c r="E97" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D95" t="s">
+      <c r="F97" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="G97" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="F95" t="s">
+      <c r="H97" s="9" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="1">
+    <row r="98" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C98" s="4">
         <v>94</v>
       </c>
-      <c r="B96" t="s">
+      <c r="D98" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C96" t="s">
+      <c r="E98" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D96" t="s">
+      <c r="F98" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="G98" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="F96" t="s">
+      <c r="H98" s="6" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="1">
+    <row r="99" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C99" s="7">
         <v>95</v>
       </c>
-      <c r="B97" t="s">
+      <c r="D99" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C97" t="s">
+      <c r="E99" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D97" t="s">
+      <c r="F99" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="G99" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="F97" t="s">
+      <c r="H99" s="9" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="1">
+    <row r="100" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C100" s="4">
         <v>96</v>
       </c>
-      <c r="B98" t="s">
+      <c r="D100" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C98" t="s">
+      <c r="E100" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D98" t="s">
+      <c r="F100" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="G100" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F98" t="s">
+      <c r="H100" s="6" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="1">
+    <row r="101" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C101" s="7">
         <v>97</v>
       </c>
-      <c r="B99" t="s">
+      <c r="D101" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C99" t="s">
+      <c r="E101" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D99" t="s">
+      <c r="F101" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="G101" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="F99" t="s">
+      <c r="H101" s="9" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="1">
+    <row r="102" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C102" s="4">
         <v>98</v>
       </c>
-      <c r="B100" t="s">
+      <c r="D102" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C100" t="s">
+      <c r="E102" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D100" t="s">
+      <c r="F102" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="G102" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F100" t="s">
+      <c r="H102" s="6" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="1">
+    <row r="103" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C103" s="7">
         <v>99</v>
       </c>
-      <c r="B101" t="s">
+      <c r="D103" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C101" t="s">
+      <c r="E103" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D101" t="s">
+      <c r="F103" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="G103" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F101" t="s">
+      <c r="H103" s="9" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="1">
+    <row r="104" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C104" s="4">
         <v>100</v>
       </c>
-      <c r="B102" t="s">
+      <c r="D104" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C102" t="s">
+      <c r="E104" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D102" t="s">
+      <c r="F104" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="G104" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F102" t="s">
+      <c r="H104" s="6" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="1">
+    <row r="105" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C105" s="7">
         <v>101</v>
       </c>
-      <c r="B103" t="s">
+      <c r="D105" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C103" t="s">
+      <c r="E105" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D103" t="s">
+      <c r="F105" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="G105" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="F103" t="s">
+      <c r="H105" s="9" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
-      <c r="A104" s="1">
+    <row r="106" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C106" s="4">
         <v>102</v>
       </c>
-      <c r="B104" t="s">
+      <c r="D106" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C104" t="s">
+      <c r="E106" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D104" t="s">
+      <c r="F106" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="G106" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="F104" t="s">
+      <c r="H106" s="6" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
-      <c r="A105" s="1">
+    <row r="107" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C107" s="7">
         <v>103</v>
       </c>
-      <c r="B105" t="s">
+      <c r="D107" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C105" t="s">
+      <c r="E107" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D105" t="s">
+      <c r="F107" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="G107" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="F105" t="s">
+      <c r="H107" s="9" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
-      <c r="A106" s="1">
+    <row r="108" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C108" s="4">
         <v>104</v>
       </c>
-      <c r="B106" t="s">
+      <c r="D108" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C106" t="s">
+      <c r="E108" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D106" t="s">
+      <c r="F108" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="G108" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="F106" t="s">
+      <c r="H108" s="6" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="1">
+    <row r="109" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C109" s="7">
         <v>105</v>
       </c>
-      <c r="B107" t="s">
+      <c r="D109" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C107" t="s">
+      <c r="E109" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D107" t="s">
+      <c r="F109" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E107" s="2" t="s">
+      <c r="G109" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F107" t="s">
+      <c r="H109" s="9" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
-      <c r="A108" s="1">
+    <row r="110" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C110" s="4">
         <v>106</v>
       </c>
-      <c r="B108" t="s">
+      <c r="D110" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C108" t="s">
+      <c r="E110" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D108" t="s">
+      <c r="F110" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="G110" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F108" t="s">
+      <c r="H110" s="6" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="1">
+    <row r="111" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C111" s="7">
         <v>107</v>
       </c>
-      <c r="B109" t="s">
+      <c r="D111" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C109" t="s">
+      <c r="E111" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D109" t="s">
+      <c r="F111" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E109" s="2" t="s">
+      <c r="G111" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="F109" t="s">
+      <c r="H111" s="9" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
-      <c r="A110" s="1">
+    <row r="112" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C112" s="4">
         <v>108</v>
       </c>
-      <c r="B110" t="s">
+      <c r="D112" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C110" t="s">
+      <c r="E112" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D110" t="s">
+      <c r="F112" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E110" s="2" t="s">
+      <c r="G112" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F110" t="s">
+      <c r="H112" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
-      <c r="A111" s="1">
+    <row r="113" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C113" s="7">
         <v>109</v>
       </c>
-      <c r="B111" t="s">
+      <c r="D113" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C111" t="s">
+      <c r="E113" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D111" t="s">
+      <c r="F113" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="G113" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F111" t="s">
+      <c r="H113" s="9" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
-      <c r="A112" s="1">
+    <row r="114" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C114" s="4">
         <v>110</v>
       </c>
-      <c r="B112" t="s">
+      <c r="D114" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C112" t="s">
+      <c r="E114" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D112" t="s">
+      <c r="F114" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="G114" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F112" t="s">
+      <c r="H114" s="6" t="s">
         <v>166</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
-    <hyperlink ref="E4" r:id="rId2"/>
-    <hyperlink ref="E5" r:id="rId3"/>
-    <hyperlink ref="E6" r:id="rId4"/>
-    <hyperlink ref="E7" r:id="rId5"/>
-    <hyperlink ref="E8" r:id="rId6"/>
-    <hyperlink ref="E9" r:id="rId7"/>
-    <hyperlink ref="E10" r:id="rId8"/>
-    <hyperlink ref="E11" r:id="rId9"/>
-    <hyperlink ref="E12" r:id="rId10"/>
-    <hyperlink ref="E13" r:id="rId11"/>
-    <hyperlink ref="E14" r:id="rId12"/>
-    <hyperlink ref="E15" r:id="rId13"/>
-    <hyperlink ref="E16" r:id="rId14"/>
-    <hyperlink ref="E17" r:id="rId15"/>
-    <hyperlink ref="E18" r:id="rId16"/>
-    <hyperlink ref="E19" r:id="rId17"/>
-    <hyperlink ref="E20" r:id="rId18"/>
-    <hyperlink ref="E21" r:id="rId19"/>
-    <hyperlink ref="E22" r:id="rId20"/>
-    <hyperlink ref="E23" r:id="rId21"/>
-    <hyperlink ref="E24" r:id="rId22"/>
-    <hyperlink ref="E25" r:id="rId23"/>
-    <hyperlink ref="E26" r:id="rId24"/>
-    <hyperlink ref="E27" r:id="rId25"/>
-    <hyperlink ref="E28" r:id="rId26"/>
-    <hyperlink ref="E29" r:id="rId27"/>
-    <hyperlink ref="E30" r:id="rId28"/>
-    <hyperlink ref="E31" r:id="rId29"/>
-    <hyperlink ref="E32" r:id="rId30"/>
-    <hyperlink ref="E33" r:id="rId31"/>
-    <hyperlink ref="E34" r:id="rId32"/>
-    <hyperlink ref="E35" r:id="rId33"/>
-    <hyperlink ref="E36" r:id="rId34"/>
-    <hyperlink ref="E37" r:id="rId35"/>
-    <hyperlink ref="E38" r:id="rId36"/>
-    <hyperlink ref="E39" r:id="rId37"/>
-    <hyperlink ref="E40" r:id="rId38"/>
-    <hyperlink ref="E41" r:id="rId39"/>
-    <hyperlink ref="E42" r:id="rId40"/>
-    <hyperlink ref="E43" r:id="rId41"/>
-    <hyperlink ref="E44" r:id="rId42"/>
-    <hyperlink ref="E45" r:id="rId43"/>
-    <hyperlink ref="E46" r:id="rId44"/>
-    <hyperlink ref="E47" r:id="rId45"/>
-    <hyperlink ref="E48" r:id="rId46"/>
-    <hyperlink ref="E49" r:id="rId47"/>
-    <hyperlink ref="E50" r:id="rId48"/>
-    <hyperlink ref="E51" r:id="rId49"/>
-    <hyperlink ref="E52" r:id="rId50"/>
-    <hyperlink ref="E53" r:id="rId51"/>
-    <hyperlink ref="E54" r:id="rId52"/>
-    <hyperlink ref="E55" r:id="rId53"/>
-    <hyperlink ref="E56" r:id="rId54"/>
-    <hyperlink ref="E57" r:id="rId55"/>
-    <hyperlink ref="E58" r:id="rId56"/>
-    <hyperlink ref="E59" r:id="rId57"/>
-    <hyperlink ref="E60" r:id="rId58"/>
-    <hyperlink ref="E61" r:id="rId59"/>
-    <hyperlink ref="E62" r:id="rId60"/>
-    <hyperlink ref="E63" r:id="rId61"/>
-    <hyperlink ref="E64" r:id="rId62"/>
-    <hyperlink ref="E65" r:id="rId63"/>
-    <hyperlink ref="E66" r:id="rId64"/>
-    <hyperlink ref="E67" r:id="rId65"/>
-    <hyperlink ref="E68" r:id="rId66"/>
-    <hyperlink ref="E69" r:id="rId67"/>
-    <hyperlink ref="E70" r:id="rId68"/>
-    <hyperlink ref="E71" r:id="rId69"/>
-    <hyperlink ref="E72" r:id="rId70"/>
-    <hyperlink ref="E73" r:id="rId71"/>
-    <hyperlink ref="E74" r:id="rId72"/>
-    <hyperlink ref="E75" r:id="rId73"/>
-    <hyperlink ref="E76" r:id="rId74"/>
-    <hyperlink ref="E77" r:id="rId75"/>
-    <hyperlink ref="E78" r:id="rId76"/>
-    <hyperlink ref="E79" r:id="rId77"/>
-    <hyperlink ref="E80" r:id="rId78"/>
-    <hyperlink ref="E81" r:id="rId79"/>
-    <hyperlink ref="E82" r:id="rId80"/>
-    <hyperlink ref="E83" r:id="rId81"/>
-    <hyperlink ref="E84" r:id="rId82"/>
-    <hyperlink ref="E85" r:id="rId83"/>
-    <hyperlink ref="E86" r:id="rId84"/>
-    <hyperlink ref="E87" r:id="rId85"/>
-    <hyperlink ref="E88" r:id="rId86"/>
-    <hyperlink ref="E89" r:id="rId87"/>
-    <hyperlink ref="E90" r:id="rId88"/>
-    <hyperlink ref="E91" r:id="rId89"/>
-    <hyperlink ref="E92" r:id="rId90"/>
-    <hyperlink ref="E93" r:id="rId91"/>
-    <hyperlink ref="E94" r:id="rId92"/>
-    <hyperlink ref="E95" r:id="rId93"/>
-    <hyperlink ref="E96" r:id="rId94"/>
-    <hyperlink ref="E97" r:id="rId95"/>
-    <hyperlink ref="E98" r:id="rId96"/>
-    <hyperlink ref="E99" r:id="rId97"/>
-    <hyperlink ref="E100" r:id="rId98"/>
-    <hyperlink ref="E101" r:id="rId99"/>
-    <hyperlink ref="E102" r:id="rId100"/>
-    <hyperlink ref="E103" r:id="rId101"/>
-    <hyperlink ref="E104" r:id="rId102"/>
-    <hyperlink ref="E105" r:id="rId103"/>
-    <hyperlink ref="E106" r:id="rId104"/>
-    <hyperlink ref="E107" r:id="rId105"/>
-    <hyperlink ref="E108" r:id="rId106"/>
-    <hyperlink ref="E109" r:id="rId107"/>
-    <hyperlink ref="E110" r:id="rId108"/>
-    <hyperlink ref="E111" r:id="rId109"/>
-    <hyperlink ref="E112" r:id="rId110"/>
+    <hyperlink ref="G5" r:id="rId1"/>
+    <hyperlink ref="G6" r:id="rId2"/>
+    <hyperlink ref="G7" r:id="rId3"/>
+    <hyperlink ref="G8" r:id="rId4"/>
+    <hyperlink ref="G9" r:id="rId5"/>
+    <hyperlink ref="G10" r:id="rId6"/>
+    <hyperlink ref="G11" r:id="rId7"/>
+    <hyperlink ref="G12" r:id="rId8"/>
+    <hyperlink ref="G13" r:id="rId9"/>
+    <hyperlink ref="G14" r:id="rId10"/>
+    <hyperlink ref="G15" r:id="rId11"/>
+    <hyperlink ref="G16" r:id="rId12"/>
+    <hyperlink ref="G17" r:id="rId13"/>
+    <hyperlink ref="G18" r:id="rId14"/>
+    <hyperlink ref="G19" r:id="rId15"/>
+    <hyperlink ref="G20" r:id="rId16"/>
+    <hyperlink ref="G21" r:id="rId17"/>
+    <hyperlink ref="G22" r:id="rId18"/>
+    <hyperlink ref="G23" r:id="rId19"/>
+    <hyperlink ref="G24" r:id="rId20"/>
+    <hyperlink ref="G25" r:id="rId21"/>
+    <hyperlink ref="G26" r:id="rId22"/>
+    <hyperlink ref="G27" r:id="rId23"/>
+    <hyperlink ref="G28" r:id="rId24"/>
+    <hyperlink ref="G29" r:id="rId25"/>
+    <hyperlink ref="G30" r:id="rId26"/>
+    <hyperlink ref="G31" r:id="rId27"/>
+    <hyperlink ref="G32" r:id="rId28"/>
+    <hyperlink ref="G33" r:id="rId29"/>
+    <hyperlink ref="G34" r:id="rId30"/>
+    <hyperlink ref="G35" r:id="rId31"/>
+    <hyperlink ref="G36" r:id="rId32"/>
+    <hyperlink ref="G37" r:id="rId33"/>
+    <hyperlink ref="G38" r:id="rId34"/>
+    <hyperlink ref="G39" r:id="rId35"/>
+    <hyperlink ref="G40" r:id="rId36"/>
+    <hyperlink ref="G41" r:id="rId37"/>
+    <hyperlink ref="G42" r:id="rId38"/>
+    <hyperlink ref="G43" r:id="rId39"/>
+    <hyperlink ref="G44" r:id="rId40"/>
+    <hyperlink ref="G45" r:id="rId41"/>
+    <hyperlink ref="G46" r:id="rId42"/>
+    <hyperlink ref="G47" r:id="rId43"/>
+    <hyperlink ref="G48" r:id="rId44"/>
+    <hyperlink ref="G49" r:id="rId45"/>
+    <hyperlink ref="G50" r:id="rId46"/>
+    <hyperlink ref="G51" r:id="rId47"/>
+    <hyperlink ref="G52" r:id="rId48"/>
+    <hyperlink ref="G53" r:id="rId49"/>
+    <hyperlink ref="G54" r:id="rId50"/>
+    <hyperlink ref="G55" r:id="rId51"/>
+    <hyperlink ref="G56" r:id="rId52"/>
+    <hyperlink ref="G57" r:id="rId53"/>
+    <hyperlink ref="G58" r:id="rId54"/>
+    <hyperlink ref="G59" r:id="rId55"/>
+    <hyperlink ref="G60" r:id="rId56"/>
+    <hyperlink ref="G61" r:id="rId57"/>
+    <hyperlink ref="G62" r:id="rId58"/>
+    <hyperlink ref="G63" r:id="rId59"/>
+    <hyperlink ref="G64" r:id="rId60"/>
+    <hyperlink ref="G65" r:id="rId61"/>
+    <hyperlink ref="G66" r:id="rId62"/>
+    <hyperlink ref="G67" r:id="rId63"/>
+    <hyperlink ref="G68" r:id="rId64"/>
+    <hyperlink ref="G69" r:id="rId65"/>
+    <hyperlink ref="G70" r:id="rId66"/>
+    <hyperlink ref="G71" r:id="rId67"/>
+    <hyperlink ref="G72" r:id="rId68"/>
+    <hyperlink ref="G73" r:id="rId69"/>
+    <hyperlink ref="G74" r:id="rId70"/>
+    <hyperlink ref="G75" r:id="rId71"/>
+    <hyperlink ref="G76" r:id="rId72"/>
+    <hyperlink ref="G77" r:id="rId73"/>
+    <hyperlink ref="G78" r:id="rId74"/>
+    <hyperlink ref="G79" r:id="rId75"/>
+    <hyperlink ref="G80" r:id="rId76"/>
+    <hyperlink ref="G81" r:id="rId77"/>
+    <hyperlink ref="G82" r:id="rId78"/>
+    <hyperlink ref="G83" r:id="rId79"/>
+    <hyperlink ref="G84" r:id="rId80"/>
+    <hyperlink ref="G85" r:id="rId81"/>
+    <hyperlink ref="G86" r:id="rId82"/>
+    <hyperlink ref="G87" r:id="rId83"/>
+    <hyperlink ref="G88" r:id="rId84"/>
+    <hyperlink ref="G89" r:id="rId85"/>
+    <hyperlink ref="G90" r:id="rId86"/>
+    <hyperlink ref="G91" r:id="rId87"/>
+    <hyperlink ref="G92" r:id="rId88"/>
+    <hyperlink ref="G93" r:id="rId89"/>
+    <hyperlink ref="G94" r:id="rId90"/>
+    <hyperlink ref="G95" r:id="rId91"/>
+    <hyperlink ref="G96" r:id="rId92"/>
+    <hyperlink ref="G97" r:id="rId93"/>
+    <hyperlink ref="G98" r:id="rId94"/>
+    <hyperlink ref="G99" r:id="rId95"/>
+    <hyperlink ref="G100" r:id="rId96"/>
+    <hyperlink ref="G101" r:id="rId97"/>
+    <hyperlink ref="G102" r:id="rId98"/>
+    <hyperlink ref="G103" r:id="rId99"/>
+    <hyperlink ref="G104" r:id="rId100"/>
+    <hyperlink ref="G105" r:id="rId101"/>
+    <hyperlink ref="G106" r:id="rId102"/>
+    <hyperlink ref="G107" r:id="rId103"/>
+    <hyperlink ref="G108" r:id="rId104"/>
+    <hyperlink ref="G109" r:id="rId105"/>
+    <hyperlink ref="G110" r:id="rId106"/>
+    <hyperlink ref="G111" r:id="rId107"/>
+    <hyperlink ref="G112" r:id="rId108"/>
+    <hyperlink ref="G113" r:id="rId109"/>
+    <hyperlink ref="G114" r:id="rId110"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId111"/>
 </worksheet>
 </file>
--- a/medicine/中药数据/TCMSP/浙贝母/浙贝母_target.xlsx
+++ b/medicine/中药数据/TCMSP/浙贝母/浙贝母_target.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\reptilian\medicine\中药数据\TCMSP\浙贝母\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MarinaJacks\project\reptilian\medicine\中药数据\TCMSP\浙贝母\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3BC75B31-386B-4F3B-938A-B64F5212626A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="242">
   <si>
     <t>modid</t>
   </si>
@@ -800,7 +799,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1081,23 +1080,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1133,23 +1115,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1325,23 +1290,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="86" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="88.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="88.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="9">
         <v>0</v>
       </c>
@@ -1361,7 +1326,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1381,7 +1346,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1401,7 +1366,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1421,7 +1386,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1441,7 +1406,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1461,7 +1426,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1481,7 +1446,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1501,7 +1466,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1521,7 +1486,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1541,7 +1506,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1561,7 +1526,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1581,7 +1546,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1601,7 +1566,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1621,7 +1586,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1641,7 +1606,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1661,7 +1626,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1681,7 +1646,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1701,7 +1666,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1721,7 +1686,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -1741,7 +1706,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1761,7 +1726,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -1781,7 +1746,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1801,7 +1766,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -1821,7 +1786,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1841,7 +1806,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -1861,7 +1826,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1881,7 +1846,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -1901,7 +1866,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1921,7 +1886,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -1941,7 +1906,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1961,7 +1926,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -1981,7 +1946,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2001,7 +1966,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -2021,7 +1986,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2041,7 +2006,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -2061,7 +2026,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2081,7 +2046,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -2101,7 +2066,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2121,7 +2086,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -2141,7 +2106,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2161,7 +2126,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -2181,7 +2146,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2201,7 +2166,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -2221,7 +2186,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2241,7 +2206,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -2261,7 +2226,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2281,7 +2246,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -2301,7 +2266,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2321,7 +2286,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -2341,7 +2306,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2361,7 +2326,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -2381,7 +2346,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2401,7 +2366,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -2421,7 +2386,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2441,7 +2406,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -2461,7 +2426,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2481,7 +2446,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>57</v>
       </c>
@@ -2501,7 +2466,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2521,7 +2486,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -2541,7 +2506,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2561,7 +2526,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>61</v>
       </c>
@@ -2581,7 +2546,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2601,7 +2566,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>63</v>
       </c>
@@ -2621,7 +2586,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2641,7 +2606,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -2661,7 +2626,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2681,7 +2646,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>67</v>
       </c>
@@ -2701,7 +2666,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -2721,7 +2686,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -2741,7 +2706,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -2761,7 +2726,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>71</v>
       </c>
@@ -2781,7 +2746,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -2801,7 +2766,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>73</v>
       </c>
@@ -2821,7 +2786,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -2841,7 +2806,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>75</v>
       </c>
@@ -2861,7 +2826,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -2881,7 +2846,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>77</v>
       </c>
@@ -2901,7 +2866,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -2921,7 +2886,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>79</v>
       </c>
@@ -2941,7 +2906,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -2961,7 +2926,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>81</v>
       </c>
@@ -2981,7 +2946,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -3001,7 +2966,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>83</v>
       </c>
@@ -3021,7 +2986,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -3041,7 +3006,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>85</v>
       </c>
@@ -3061,7 +3026,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -3081,7 +3046,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>87</v>
       </c>
@@ -3101,7 +3066,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -3121,7 +3086,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>89</v>
       </c>
@@ -3141,7 +3106,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -3161,7 +3126,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <v>91</v>
       </c>
@@ -3181,7 +3146,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -3201,7 +3166,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>93</v>
       </c>
@@ -3221,7 +3186,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -3241,7 +3206,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>95</v>
       </c>
@@ -3261,7 +3226,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -3281,7 +3246,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
         <v>97</v>
       </c>
@@ -3301,7 +3266,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -3321,7 +3286,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
         <v>99</v>
       </c>
@@ -3341,7 +3306,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -3361,7 +3326,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
         <v>101</v>
       </c>
@@ -3381,7 +3346,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -3401,7 +3366,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>103</v>
       </c>
@@ -3421,7 +3386,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -3441,7 +3406,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
         <v>105</v>
       </c>
@@ -3461,7 +3426,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -3481,7 +3446,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
         <v>107</v>
       </c>
@@ -3501,7 +3466,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -3521,7 +3486,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
         <v>109</v>
       </c>
@@ -3541,7 +3506,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -3564,116 +3529,116 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="E7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="E8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="E10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="E14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="E16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="E17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="E18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="E19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="E20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="E21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="E22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="E23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="E24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="E25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="E26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="E27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="E28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="E29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="E30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="E31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="E32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="E33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="E34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="E35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="E36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="E37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="E38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="E39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="E40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="E41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="E42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="E43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="E44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="E45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="E46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="E47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="E48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="E49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="E50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="E51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="E52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="E53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="E54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="E55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="E56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="E57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="E58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="E59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="E60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="E61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="E62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="E63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="E64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="E65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="E66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="E67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="E68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="E69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="E70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="E71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="E72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="E73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="E74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="E75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="E76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="E77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="E78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="E79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="E80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="E81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="E82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="E83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="E84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="E85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="E86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="E87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="E88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="E89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="E90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="E91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="E92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="E93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="E94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="E95" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="E96" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="E97" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="E98" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="E99" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="E100" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="E101" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="E102" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="E103" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="E104" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="E105" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="E106" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="E107" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="E108" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="E109" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="E110" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="E111" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
+    <hyperlink ref="E8" r:id="rId7"/>
+    <hyperlink ref="E9" r:id="rId8"/>
+    <hyperlink ref="E10" r:id="rId9"/>
+    <hyperlink ref="E11" r:id="rId10"/>
+    <hyperlink ref="E12" r:id="rId11"/>
+    <hyperlink ref="E13" r:id="rId12"/>
+    <hyperlink ref="E14" r:id="rId13"/>
+    <hyperlink ref="E15" r:id="rId14"/>
+    <hyperlink ref="E16" r:id="rId15"/>
+    <hyperlink ref="E17" r:id="rId16"/>
+    <hyperlink ref="E18" r:id="rId17"/>
+    <hyperlink ref="E19" r:id="rId18"/>
+    <hyperlink ref="E20" r:id="rId19"/>
+    <hyperlink ref="E21" r:id="rId20"/>
+    <hyperlink ref="E22" r:id="rId21"/>
+    <hyperlink ref="E23" r:id="rId22"/>
+    <hyperlink ref="E24" r:id="rId23"/>
+    <hyperlink ref="E25" r:id="rId24"/>
+    <hyperlink ref="E26" r:id="rId25"/>
+    <hyperlink ref="E27" r:id="rId26"/>
+    <hyperlink ref="E28" r:id="rId27"/>
+    <hyperlink ref="E29" r:id="rId28"/>
+    <hyperlink ref="E30" r:id="rId29"/>
+    <hyperlink ref="E31" r:id="rId30"/>
+    <hyperlink ref="E32" r:id="rId31"/>
+    <hyperlink ref="E33" r:id="rId32"/>
+    <hyperlink ref="E34" r:id="rId33"/>
+    <hyperlink ref="E35" r:id="rId34"/>
+    <hyperlink ref="E36" r:id="rId35"/>
+    <hyperlink ref="E37" r:id="rId36"/>
+    <hyperlink ref="E38" r:id="rId37"/>
+    <hyperlink ref="E39" r:id="rId38"/>
+    <hyperlink ref="E40" r:id="rId39"/>
+    <hyperlink ref="E41" r:id="rId40"/>
+    <hyperlink ref="E42" r:id="rId41"/>
+    <hyperlink ref="E43" r:id="rId42"/>
+    <hyperlink ref="E44" r:id="rId43"/>
+    <hyperlink ref="E45" r:id="rId44"/>
+    <hyperlink ref="E46" r:id="rId45"/>
+    <hyperlink ref="E47" r:id="rId46"/>
+    <hyperlink ref="E48" r:id="rId47"/>
+    <hyperlink ref="E49" r:id="rId48"/>
+    <hyperlink ref="E50" r:id="rId49"/>
+    <hyperlink ref="E51" r:id="rId50"/>
+    <hyperlink ref="E52" r:id="rId51"/>
+    <hyperlink ref="E53" r:id="rId52"/>
+    <hyperlink ref="E54" r:id="rId53"/>
+    <hyperlink ref="E55" r:id="rId54"/>
+    <hyperlink ref="E56" r:id="rId55"/>
+    <hyperlink ref="E57" r:id="rId56"/>
+    <hyperlink ref="E58" r:id="rId57"/>
+    <hyperlink ref="E59" r:id="rId58"/>
+    <hyperlink ref="E60" r:id="rId59"/>
+    <hyperlink ref="E61" r:id="rId60"/>
+    <hyperlink ref="E62" r:id="rId61"/>
+    <hyperlink ref="E63" r:id="rId62"/>
+    <hyperlink ref="E64" r:id="rId63"/>
+    <hyperlink ref="E65" r:id="rId64"/>
+    <hyperlink ref="E66" r:id="rId65"/>
+    <hyperlink ref="E67" r:id="rId66"/>
+    <hyperlink ref="E68" r:id="rId67"/>
+    <hyperlink ref="E69" r:id="rId68"/>
+    <hyperlink ref="E70" r:id="rId69"/>
+    <hyperlink ref="E71" r:id="rId70"/>
+    <hyperlink ref="E72" r:id="rId71"/>
+    <hyperlink ref="E73" r:id="rId72"/>
+    <hyperlink ref="E74" r:id="rId73"/>
+    <hyperlink ref="E75" r:id="rId74"/>
+    <hyperlink ref="E76" r:id="rId75"/>
+    <hyperlink ref="E77" r:id="rId76"/>
+    <hyperlink ref="E78" r:id="rId77"/>
+    <hyperlink ref="E79" r:id="rId78"/>
+    <hyperlink ref="E80" r:id="rId79"/>
+    <hyperlink ref="E81" r:id="rId80"/>
+    <hyperlink ref="E82" r:id="rId81"/>
+    <hyperlink ref="E83" r:id="rId82"/>
+    <hyperlink ref="E84" r:id="rId83"/>
+    <hyperlink ref="E85" r:id="rId84"/>
+    <hyperlink ref="E86" r:id="rId85"/>
+    <hyperlink ref="E87" r:id="rId86"/>
+    <hyperlink ref="E88" r:id="rId87"/>
+    <hyperlink ref="E89" r:id="rId88"/>
+    <hyperlink ref="E90" r:id="rId89"/>
+    <hyperlink ref="E91" r:id="rId90"/>
+    <hyperlink ref="E92" r:id="rId91"/>
+    <hyperlink ref="E93" r:id="rId92"/>
+    <hyperlink ref="E94" r:id="rId93"/>
+    <hyperlink ref="E95" r:id="rId94"/>
+    <hyperlink ref="E96" r:id="rId95"/>
+    <hyperlink ref="E97" r:id="rId96"/>
+    <hyperlink ref="E98" r:id="rId97"/>
+    <hyperlink ref="E99" r:id="rId98"/>
+    <hyperlink ref="E100" r:id="rId99"/>
+    <hyperlink ref="E101" r:id="rId100"/>
+    <hyperlink ref="E102" r:id="rId101"/>
+    <hyperlink ref="E103" r:id="rId102"/>
+    <hyperlink ref="E104" r:id="rId103"/>
+    <hyperlink ref="E105" r:id="rId104"/>
+    <hyperlink ref="E106" r:id="rId105"/>
+    <hyperlink ref="E107" r:id="rId106"/>
+    <hyperlink ref="E108" r:id="rId107"/>
+    <hyperlink ref="E109" r:id="rId108"/>
+    <hyperlink ref="E110" r:id="rId109"/>
+    <hyperlink ref="E111" r:id="rId110"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId111"/>
